--- a/va_facility_data_2025-02-20/Wilmington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wilmington%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Wilmington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wilmington%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5b9fb9f3aa15410eac876770fa6394b0"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd25be5bd38b440a4bea369f270d012fd"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R960b59ca851b462283876cbaa7333c90"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd8ddc125853d4e85bb99cf32b38304f4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rad4e956f714c44a0a06fba19f4d47b29"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R33fdb59061974f988a5a83eb1da63a4b"/>
   </x:sheets>
 </x:workbook>
 </file>
